--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_22-39.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_22-39.xlsx
@@ -68,6 +68,12 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMEBAZOL 1GM 2 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -113,9 +119,6 @@
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -384,6 +387,9 @@
   </si>
   <si>
     <t>1:4</t>
+  </si>
+  <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
   </si>
   <si>
     <t>PROXIMOL COMPOUND EFF. GRANULES 60 GM</t>
@@ -1359,11 +1365,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>39</v>
+        <v>25.379999999999999</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1385,11 +1391,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1405,17 +1411,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1423,7 +1429,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1431,17 +1437,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1449,7 +1455,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1457,17 +1463,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1483,13 +1489,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1501,7 +1507,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1509,13 +1515,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1541,7 +1547,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>357</v>
+        <v>192</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1561,13 +1567,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1579,7 +1585,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1587,13 +1593,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1613,13 +1619,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
@@ -1639,13 +1645,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
@@ -1657,7 +1663,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1665,13 +1671,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1691,17 +1697,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1717,17 +1723,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1743,13 +1749,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1769,17 +1775,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>199.5</v>
+        <v>34</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1795,17 +1801,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>21</v>
+        <v>199.5</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1821,17 +1827,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1847,13 +1853,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1865,7 +1871,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1873,13 +1879,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1905,11 +1911,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>47.5</v>
+        <v>41</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1925,17 +1931,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>36</v>
+        <v>47.5</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1943,7 +1949,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1951,13 +1957,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1969,7 +1975,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1977,17 +1983,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>82.920000000000002</v>
+        <v>85</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1995,7 +2001,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2003,17 +2009,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>13</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.20000000000000001</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2021,7 +2027,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2029,17 +2035,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -2055,17 +2061,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2081,17 +2087,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2099,7 +2105,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2107,17 +2113,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2133,17 +2139,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.66000000000000003</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2151,7 +2157,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2159,17 +2165,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2185,13 +2191,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
@@ -2217,7 +2223,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2243,7 +2249,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -2263,17 +2269,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2281,7 +2287,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2289,17 +2295,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2315,13 +2321,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2341,13 +2347,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2367,17 +2373,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2393,17 +2399,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>169.19999999999999</v>
+        <v>80</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2419,13 +2425,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>100</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2445,13 +2451,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2471,13 +2477,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>25.739999999999998</v>
+        <v>54</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
@@ -2489,7 +2495,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2497,17 +2503,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>27.260000000000002</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2523,17 +2529,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>177</v>
+        <v>27.260000000000002</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2549,17 +2555,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>35.5</v>
+        <v>177</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2575,17 +2581,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>88.319999999999993</v>
+        <v>35.5</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2601,17 +2607,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>119</v>
+        <v>88.319999999999993</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2633,11 +2639,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2653,13 +2659,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2679,17 +2685,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2711,11 +2717,11 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2731,13 +2737,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>69.5</v>
+        <v>43</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2757,17 +2763,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>86.5</v>
+        <v>69.5</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2783,17 +2789,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>18.5</v>
+        <v>86.5</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2809,17 +2815,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2835,17 +2841,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2861,13 +2867,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>38.5</v>
+        <v>58</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2887,17 +2893,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2913,17 +2919,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2931,7 +2937,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2939,17 +2945,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2965,13 +2971,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2991,13 +2997,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -3017,17 +3023,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -3043,17 +3049,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3069,17 +3075,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3095,17 +3101,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3121,13 +3127,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -3147,13 +3153,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3173,13 +3179,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>100.8</v>
+        <v>150</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3199,13 +3205,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>60</v>
+        <v>100.8</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3225,17 +3231,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3251,17 +3257,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3277,17 +3283,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3303,17 +3309,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3329,13 +3335,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>33.840000000000003</v>
+        <v>137</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3355,17 +3361,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3381,17 +3387,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3399,7 +3405,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3407,17 +3413,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.25</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3433,17 +3439,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3451,7 +3457,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3459,17 +3465,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3491,11 +3497,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3511,17 +3517,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3543,7 +3549,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
@@ -3563,17 +3569,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3581,7 +3587,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3589,17 +3595,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3621,11 +3627,11 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3647,7 +3653,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3667,17 +3673,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3693,7 +3699,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -3725,7 +3731,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
@@ -3751,7 +3757,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
@@ -3777,7 +3783,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
@@ -3797,17 +3803,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3823,13 +3829,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>86.5</v>
+        <v>90</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3849,17 +3855,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3867,7 +3873,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3875,17 +3881,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>134.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3893,7 +3899,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3901,17 +3907,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3927,17 +3933,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>20</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3959,7 +3965,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
@@ -3979,13 +3985,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3997,7 +4003,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -4005,13 +4011,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -4023,7 +4029,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4031,17 +4037,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4057,17 +4063,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4083,17 +4089,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>74.689999999999998</v>
+        <v>69</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>0.20000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4109,17 +4115,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>0.33000000000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4135,17 +4141,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>66</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4161,17 +4167,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4187,17 +4193,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4213,13 +4219,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>24.960000000000001</v>
+        <v>31</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4239,17 +4245,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4265,17 +4271,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>5</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4283,7 +4289,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4291,17 +4297,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4309,7 +4315,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4317,17 +4323,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>102.59999999999999</v>
+        <v>5</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4343,13 +4349,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4369,17 +4375,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4395,13 +4401,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4413,7 +4419,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4421,17 +4427,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4439,7 +4445,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4447,13 +4453,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
@@ -4465,7 +4471,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4473,13 +4479,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
@@ -4491,7 +4497,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4499,17 +4505,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>98.400000000000006</v>
+        <v>35</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4517,7 +4523,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4525,13 +4531,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
@@ -4543,7 +4549,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4557,11 +4563,11 @@
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>10</v>
+        <v>98.400000000000006</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4569,7 +4575,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4577,17 +4583,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4595,7 +4601,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4603,17 +4609,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4621,7 +4627,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4629,17 +4635,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4647,7 +4653,7 @@
         <v>135</v>
       </c>
       <c t="s" r="B138" s="7">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4661,11 +4667,11 @@
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4673,7 +4679,7 @@
         <v>136</v>
       </c>
       <c t="s" r="B139" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4681,17 +4687,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4707,13 +4713,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
@@ -4733,13 +4739,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
@@ -4765,11 +4771,11 @@
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
@@ -4785,17 +4791,17 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1">
@@ -4803,7 +4809,7 @@
         <v>141</v>
       </c>
       <c t="s" r="B144" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -4811,17 +4817,17 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" ht="25.5" customHeight="1">
@@ -4829,7 +4835,7 @@
         <v>142</v>
       </c>
       <c t="s" r="B145" s="7">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -4837,17 +4843,17 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M145" s="9"/>
       <c r="N145" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" ht="24.75" customHeight="1">
@@ -4863,17 +4869,17 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M146" s="9"/>
       <c r="N146" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
@@ -4881,7 +4887,7 @@
         <v>144</v>
       </c>
       <c t="s" r="B147" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -4889,13 +4895,13 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M147" s="9"/>
       <c r="N147" s="10">
@@ -4907,7 +4913,7 @@
         <v>145</v>
       </c>
       <c t="s" r="B148" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -4915,51 +4921,103 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M148" s="9"/>
       <c r="N148" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="149" ht="25.5" customHeight="1">
-      <c r="K149" s="11">
-        <v>9550.5599999999995</v>
-      </c>
-      <c r="L149" s="11"/>
-      <c r="M149" s="11"/>
-      <c r="N149" s="11"/>
-    </row>
-    <row r="150" ht="16.5" customHeight="1">
-      <c t="s" r="A150" s="12">
+    <row r="149" ht="24.75" customHeight="1">
+      <c r="A149" s="6">
+        <v>146</v>
+      </c>
+      <c t="s" r="B149" s="7">
         <v>189</v>
       </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c t="s" r="F150" s="13">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c t="s" r="H149" s="8">
+        <v>168</v>
+      </c>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="9">
+        <v>35</v>
+      </c>
+      <c r="M149" s="9"/>
+      <c r="N149" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" ht="25.5" customHeight="1">
+      <c r="A150" s="6">
+        <v>147</v>
+      </c>
+      <c t="s" r="B150" s="7">
         <v>190</v>
       </c>
-      <c r="G150" s="13"/>
-      <c r="H150" s="14"/>
-      <c t="s" r="I150" s="15">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c t="s" r="H150" s="8">
+        <v>64</v>
+      </c>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="9">
+        <v>30</v>
+      </c>
+      <c r="M150" s="9"/>
+      <c r="N150" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" ht="25.5" customHeight="1">
+      <c r="K151" s="11">
+        <v>9675.9400000000005</v>
+      </c>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+    </row>
+    <row r="152" ht="16.5" customHeight="1">
+      <c t="s" r="A152" s="12">
         <v>191</v>
       </c>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c t="s" r="F152" s="13">
+        <v>192</v>
+      </c>
+      <c r="G152" s="13"/>
+      <c r="H152" s="14"/>
+      <c t="s" r="I152" s="15">
+        <v>193</v>
+      </c>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="446">
+  <mergeCells count="452">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5402,10 +5460,16 @@
     <mergeCell ref="B148:G148"/>
     <mergeCell ref="H148:K148"/>
     <mergeCell ref="L148:M148"/>
-    <mergeCell ref="K149:N149"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="I150:N150"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="H150:K150"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="K151:N151"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="I152:N152"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
